--- a/settings/missles.xlsx
+++ b/settings/missles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.jx-linux-6.0-thanlong\1.Client\Client.dev\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD6240B-42B8-4B56-98D2-37011A10E1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2467E7-6DFD-443D-9B39-771FD21987DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="missles" sheetId="1" r:id="rId1"/>
@@ -2608,7 +2608,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3449,27 +3449,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE430"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="32.140625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="32.109375" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="17.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="32" width="9.109375" style="1"/>
+    <col min="33" max="33" width="58.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="38" width="9.109375" style="1"/>
+    <col min="39" max="39" width="57.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3642,7 +3646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3761,7 +3765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3880,7 +3884,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3999,7 +4003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4115,7 +4119,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4231,7 +4235,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4350,7 +4354,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4454,7 +4458,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4576,7 +4580,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4698,7 +4702,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4808,7 +4812,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4921,7 +4925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5031,7 +5035,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5141,7 +5145,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5257,7 +5261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5376,7 +5380,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5492,7 +5496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5718,7 +5722,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5926,7 +5930,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6033,7 +6037,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6140,7 +6144,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6247,7 +6251,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6366,7 +6370,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6482,7 +6486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6598,7 +6602,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6708,7 +6712,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6818,7 +6822,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6925,7 +6929,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7041,7 +7045,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7157,7 +7161,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7276,7 +7280,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7389,7 +7393,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7505,7 +7509,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7621,7 +7625,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7731,7 +7735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7841,7 +7845,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7948,7 +7952,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8055,7 +8059,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8162,7 +8166,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8269,7 +8273,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8376,7 +8380,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8483,7 +8487,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8608,7 +8612,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8724,7 +8728,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8840,7 +8844,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8956,7 +8960,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -9075,7 +9079,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -9182,7 +9186,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -9289,7 +9293,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -9396,7 +9400,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -9503,7 +9507,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -9610,7 +9614,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -9729,7 +9733,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -9863,7 +9867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -9982,7 +9986,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -10101,7 +10105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -10202,7 +10206,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -10309,7 +10313,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -10416,7 +10420,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -10523,7 +10527,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -10630,7 +10634,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -10746,7 +10750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -10856,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -10972,7 +10976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -11082,7 +11086,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -11192,7 +11196,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -11308,7 +11312,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -11418,7 +11422,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -11528,7 +11532,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -11638,7 +11642,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -11748,7 +11752,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -11858,7 +11862,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -11968,7 +11972,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -12078,7 +12082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -12179,7 +12183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -12280,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -12387,7 +12391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -12494,7 +12498,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -12601,7 +12605,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -12708,7 +12712,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -12821,7 +12825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -12922,7 +12926,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -13029,7 +13033,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -13136,7 +13140,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -13243,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -13350,7 +13354,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -13457,7 +13461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -13564,7 +13568,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -13671,7 +13675,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -13781,7 +13785,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -13882,7 +13886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -13986,7 +13990,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -14093,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -14206,7 +14210,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -14316,7 +14320,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -14432,7 +14436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -14548,7 +14552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -14664,7 +14668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -14780,7 +14784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -14887,7 +14891,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -14994,7 +14998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -15113,7 +15117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -15232,7 +15236,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -15342,7 +15346,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -15449,7 +15453,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -15553,7 +15557,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -15657,7 +15661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -15758,7 +15762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -15880,7 +15884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -15990,7 +15994,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -16103,7 +16107,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -16225,7 +16229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -16332,7 +16336,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -16448,7 +16452,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -16558,7 +16562,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -16692,7 +16696,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -16805,7 +16809,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -16921,7 +16925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -17034,7 +17038,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -17147,7 +17151,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -17260,7 +17264,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -17373,7 +17377,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -17486,7 +17490,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -17587,7 +17591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -17706,7 +17710,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -17813,7 +17817,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -17947,7 +17951,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -18072,7 +18076,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -18182,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -18304,7 +18308,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -18426,7 +18430,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -18548,7 +18552,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -18664,7 +18668,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -18792,7 +18796,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -18908,7 +18912,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -19009,7 +19013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -19125,7 +19129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -19253,7 +19257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -19381,7 +19385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -19509,7 +19513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -19628,7 +19632,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -19744,7 +19748,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -19860,7 +19864,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -19976,7 +19980,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -20095,7 +20099,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -20211,7 +20215,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -20321,7 +20325,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -20431,7 +20435,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -20538,7 +20542,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -20657,7 +20661,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -20776,7 +20780,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -20883,7 +20887,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -21020,7 +21024,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -21127,7 +21131,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -21264,7 +21268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -21371,7 +21375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -21508,7 +21512,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -21615,7 +21619,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -21752,7 +21756,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -21859,7 +21863,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -21978,7 +21982,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -22085,7 +22089,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -22198,7 +22202,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -22317,7 +22321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -22436,7 +22440,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -22546,7 +22550,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -22662,7 +22666,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -22781,7 +22785,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -22888,7 +22892,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -23010,7 +23014,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -23117,7 +23121,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -23227,7 +23231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -23337,7 +23341,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -23447,7 +23451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -23563,7 +23567,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -23673,7 +23677,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -23789,7 +23793,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -23899,7 +23903,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -24018,7 +24022,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -24131,7 +24135,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -24250,7 +24254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -24366,7 +24370,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -24485,7 +24489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -24619,7 +24623,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -24735,7 +24739,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -24851,7 +24855,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -24967,7 +24971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -25086,7 +25090,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -25205,7 +25209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -25324,7 +25328,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -25440,7 +25444,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -25553,7 +25557,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -25672,7 +25676,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -25782,7 +25786,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -25898,7 +25902,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -26023,7 +26027,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -26142,7 +26146,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -26261,7 +26265,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -26380,7 +26384,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -26499,7 +26503,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -26618,7 +26622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -26719,7 +26723,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -26853,7 +26857,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -26963,7 +26967,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -27073,7 +27077,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -27183,7 +27187,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -27293,7 +27297,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -27403,7 +27407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -27519,7 +27523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -27635,7 +27639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -27754,7 +27758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -27870,7 +27874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -27986,7 +27990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -28102,7 +28106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -28218,7 +28222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -28334,7 +28338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -28444,7 +28448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -28560,7 +28564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -28673,7 +28677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -28789,7 +28793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -28905,7 +28909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -29045,7 +29049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -29161,7 +29165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -29280,7 +29284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -29399,7 +29403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -29518,7 +29522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -29637,7 +29641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -29747,7 +29751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -29857,7 +29861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -29967,7 +29971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -30077,7 +30081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -30187,7 +30191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -30297,7 +30301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -30407,7 +30411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -30508,7 +30512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -30612,7 +30616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -30728,7 +30732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -30844,7 +30848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -30960,7 +30964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -31079,7 +31083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -31189,7 +31193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -31299,7 +31303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -31412,7 +31416,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -31525,7 +31529,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -31635,7 +31639,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -31745,7 +31749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -31861,7 +31865,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -31974,7 +31978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -32087,7 +32091,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -32200,7 +32204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -32313,7 +32317,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -32426,7 +32430,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -32542,7 +32546,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -32655,7 +32659,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -32768,7 +32772,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -32881,7 +32885,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -32994,7 +32998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -33107,7 +33111,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -33211,7 +33215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -33318,7 +33322,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -33425,7 +33429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -33541,7 +33545,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -33648,7 +33652,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -33764,7 +33768,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -33871,7 +33875,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -33972,7 +33976,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -34091,7 +34095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -34210,7 +34214,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -34329,7 +34333,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -34442,7 +34446,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -34561,7 +34565,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -34662,7 +34666,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -34763,7 +34767,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -34864,7 +34868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -34971,7 +34975,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -35090,7 +35094,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -35197,7 +35201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -35304,7 +35308,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -35411,7 +35415,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -35518,7 +35522,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -35625,7 +35629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -35744,7 +35748,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -35860,7 +35864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -35967,7 +35971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -36071,7 +36075,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -36175,7 +36179,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -36279,7 +36283,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -36383,7 +36387,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -36484,7 +36488,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -36603,7 +36607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -36722,7 +36726,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -36841,7 +36845,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -36960,7 +36964,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -37082,7 +37086,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -37183,7 +37187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -37308,7 +37312,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -37427,7 +37431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -37537,7 +37541,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -37647,7 +37651,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -37757,7 +37761,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -37867,7 +37871,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -37986,7 +37990,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -38105,7 +38109,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="306" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -38224,7 +38228,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="307" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -38325,7 +38329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -38444,7 +38448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="309" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -38563,7 +38567,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="310" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -38670,7 +38674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="311" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -38786,7 +38790,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="312" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -38905,7 +38909,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="313" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -39024,7 +39028,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="314" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -39137,7 +39141,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="315" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -39238,7 +39242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -39357,7 +39361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -39476,7 +39480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -39574,7 +39578,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="319" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -39702,7 +39706,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="320" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -39818,7 +39822,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="321" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -39934,7 +39938,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="322" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -40026,7 +40030,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="323" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -40118,7 +40122,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="324" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -40237,7 +40241,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="325" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -40344,7 +40348,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="326" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -40463,7 +40467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="327" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -40582,7 +40586,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="328" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -40701,7 +40705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="329" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -40814,7 +40818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="330" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -40927,7 +40931,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="331" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -41034,7 +41038,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="332" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -41144,7 +41148,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="333" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -41254,7 +41258,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="334" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -41373,7 +41377,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="335" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -41483,7 +41487,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="336" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -41593,7 +41597,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="337" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -41709,7 +41713,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="338" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -41828,7 +41832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="339" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -41950,7 +41954,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="340" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -42057,7 +42061,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="341" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -42167,7 +42171,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="342" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -42274,7 +42278,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="343" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -42390,7 +42394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="344" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -42503,7 +42507,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="345" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -42598,7 +42602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="346" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -42714,7 +42718,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="347" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -42800,7 +42804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -42886,7 +42890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -43008,7 +43012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -43136,7 +43140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -43255,7 +43259,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="352" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -43371,7 +43375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="353" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -43481,7 +43485,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="354" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -43600,7 +43604,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="355" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -43719,7 +43723,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="356" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -43829,7 +43833,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="357" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -43942,7 +43946,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="358" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -44058,7 +44062,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="359" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -44171,7 +44175,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="360" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -44278,7 +44282,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="361" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -44397,7 +44401,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="362" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -44483,7 +44487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -44584,7 +44588,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="364" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -44697,7 +44701,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="365" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -44783,7 +44787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -44869,7 +44873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -44976,7 +44980,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="368" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -45086,7 +45090,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="369" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -45202,7 +45206,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="370" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -45309,7 +45313,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="371" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -45413,7 +45417,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="372" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -45526,7 +45530,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="373" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -45633,7 +45637,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="374" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -45743,7 +45747,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="375" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -45859,7 +45863,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="376" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -45969,7 +45973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="377" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -46070,7 +46074,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="378" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -46186,7 +46190,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="379" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -46305,7 +46309,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="380" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -46421,7 +46425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="381" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -46531,7 +46535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="382" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -46650,7 +46654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -46760,7 +46764,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="384" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -46879,7 +46883,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="385" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -46998,7 +47002,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="386" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -47105,7 +47109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="387" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -47212,7 +47216,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="388" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -47319,7 +47323,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="389" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -47426,7 +47430,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="390" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -47527,7 +47531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -47628,7 +47632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -47735,7 +47739,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="393" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -47842,7 +47846,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="394" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -47949,7 +47953,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="395" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -48056,7 +48060,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="396" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -48172,7 +48176,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="397" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -48288,7 +48292,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="398" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -48404,7 +48408,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="399" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -48514,7 +48518,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="400" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -48648,7 +48652,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="401" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -48755,7 +48759,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="402" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -48868,7 +48872,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="403" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -48987,7 +48991,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="404" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -49109,7 +49113,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="405" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -49216,7 +49220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="406" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -49323,7 +49327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="407" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -49442,7 +49446,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="408" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -49561,7 +49565,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="409" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -49662,7 +49666,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="410" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -49763,7 +49767,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="411" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -49870,7 +49874,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="412" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -49986,7 +49990,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="413" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -50105,7 +50109,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="414" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -50224,7 +50228,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="415" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -50331,7 +50335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="416" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -50444,7 +50448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="417" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -50557,7 +50561,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="418" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -50670,7 +50674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="419" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -50789,7 +50793,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="420" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -50896,7 +50900,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="421" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -51009,7 +51013,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="422" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -51116,7 +51120,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="423" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -51229,7 +51233,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="424" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -51336,7 +51340,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="425" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -51449,7 +51453,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="426" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -51550,7 +51554,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="427" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -51666,7 +51670,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="428" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -51782,7 +51786,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="429" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -51883,7 +51887,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="430" spans="1:57" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:57" x14ac:dyDescent="0.5">
       <c r="A430" s="1">
         <v>429</v>
       </c>

--- a/settings/missles.xlsx
+++ b/settings/missles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.jx-linux-6.0-thanlong\1.Client\Client.dev\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2467E7-6DFD-443D-9B39-771FD21987DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639150F2-E03C-42D9-90E8-3C233186788B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7272" yWindow="4776" windowWidth="30960" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="missles" sheetId="1" r:id="rId1"/>
@@ -3452,9 +3452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95:XFD95"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A174" sqref="A174:XFD174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -3468,7 +3468,11 @@
     <col min="10" max="10" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="32" width="9.109375" style="1"/>
     <col min="33" max="33" width="58.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="38" width="9.109375" style="1"/>
+    <col min="34" max="34" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="54.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.109375" style="1"/>
     <col min="39" max="39" width="57.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="16384" width="9.109375" style="1"/>
   </cols>
